--- a/procesos.xlsx
+++ b/procesos.xlsx
@@ -18,7 +18,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1'!$10:$10</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -509,7 +508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,6 +709,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -721,7 +723,70 @@
     <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="45">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5EBC78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDC913"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2575A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5EBC78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDC913"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2575A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5EBC78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDC913"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2575A"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1478,27 +1543,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5EBC78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDC913"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2575A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <bottom/>
         <horizontal style="thick">
@@ -1526,15 +1570,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Organizador de ideas" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="38"/>
-      <tableStyleElement type="headerRow" dxfId="37"/>
-      <tableStyleElement type="firstColumn" dxfId="36"/>
+      <tableStyleElement type="wholeTable" dxfId="44"/>
+      <tableStyleElement type="headerRow" dxfId="43"/>
+      <tableStyleElement type="firstColumn" dxfId="42"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF5EBC78"/>
       <color rgb="FFF2575A"/>
-      <color rgb="FF5EBC78"/>
       <color rgb="FFFDC913"/>
       <color rgb="FFB64640"/>
       <color rgb="FF3F954D"/>
@@ -1601,7 +1645,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tareas" displayName="Tareas" ref="B10:G17" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tareas" displayName="Tareas" ref="B10:G17" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="B10:G17">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1611,14 +1655,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="6" name=" " dataDxfId="29"/>
-    <tableColumn id="1" name="Tareas" dataDxfId="28"/>
-    <tableColumn id="2" name="Fecha de vencimiento" dataDxfId="27"/>
-    <tableColumn id="3" name="¿Hecho?" dataDxfId="26"/>
-    <tableColumn id="4" name="Estado" dataDxfId="25">
+    <tableColumn id="6" name=" " dataDxfId="38"/>
+    <tableColumn id="1" name="Tareas" dataDxfId="37"/>
+    <tableColumn id="2" name="Fecha de vencimiento" dataDxfId="36"/>
+    <tableColumn id="3" name="¿Hecho?" dataDxfId="35"/>
+    <tableColumn id="4" name="Estado" dataDxfId="34">
       <calculatedColumnFormula>IF(Tareas[[#This Row],[¿Hecho?]]="SI",2,IF(Tareas[[#This Row],[¿Hecho?]]="no",0,IF(OR(AND(Tareas[[#This Row],[Fecha de vencimiento]]&lt;=TODAY(),Tareas[[#This Row],[Fecha de vencimiento]]&lt;FechaDeVencimiento),Tareas[[#This Row],[¿Hecho?]]="Pendiente"),1,"")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Notas" dataDxfId="24"/>
+    <tableColumn id="5" name="Notas" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="Organizador de ideas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1630,17 +1674,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tareas9" displayName="Tareas9" ref="B10:G17" totalsRowShown="0" headerRowDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tareas9" displayName="Tareas9" ref="B10:G17" totalsRowShown="0" headerRowDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="B10:G17"/>
   <tableColumns count="6">
-    <tableColumn id="6" name=" " dataDxfId="17"/>
-    <tableColumn id="1" name="Tareas" dataDxfId="16"/>
-    <tableColumn id="2" name="Fecha de vencimiento" dataDxfId="15"/>
-    <tableColumn id="3" name="¿Hecho?" dataDxfId="14"/>
-    <tableColumn id="4" name="Estado" dataDxfId="13">
+    <tableColumn id="6" name=" " dataDxfId="26"/>
+    <tableColumn id="1" name="Tareas" dataDxfId="25"/>
+    <tableColumn id="2" name="Fecha de vencimiento" dataDxfId="24"/>
+    <tableColumn id="3" name="¿Hecho?" dataDxfId="23"/>
+    <tableColumn id="4" name="Estado" dataDxfId="22">
       <calculatedColumnFormula>IF(Tareas9[[#This Row],[¿Hecho?]]="SI",2,IF(Tareas9[[#This Row],[¿Hecho?]]="no",0,IF(OR(AND(Tareas9[[#This Row],[Fecha de vencimiento]]&lt;=TODAY(),Tareas9[[#This Row],[Fecha de vencimiento]]&lt;FechaDeVencimiento),Tareas9[[#This Row],[¿Hecho?]]="Pendiente"),1,"")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Notas" dataDxfId="12"/>
+    <tableColumn id="5" name="Notas" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="Organizador de ideas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1652,17 +1696,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tareas911" displayName="Tareas911" ref="B10:G17" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tareas911" displayName="Tareas911" ref="B10:G17" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="B10:G17"/>
   <tableColumns count="6">
-    <tableColumn id="6" name=" " dataDxfId="5"/>
-    <tableColumn id="1" name="Tareas" dataDxfId="4"/>
-    <tableColumn id="2" name="Fecha de vencimiento" dataDxfId="3"/>
-    <tableColumn id="3" name="¿Hecho?" dataDxfId="2"/>
-    <tableColumn id="4" name="Estado" dataDxfId="1">
+    <tableColumn id="6" name=" " dataDxfId="14"/>
+    <tableColumn id="1" name="Tareas" dataDxfId="13"/>
+    <tableColumn id="2" name="Fecha de vencimiento" dataDxfId="12"/>
+    <tableColumn id="3" name="¿Hecho?" dataDxfId="11"/>
+    <tableColumn id="4" name="Estado" dataDxfId="10">
       <calculatedColumnFormula>IF(Tareas911[[#This Row],[¿Hecho?]]="SI",2,IF(Tareas911[[#This Row],[¿Hecho?]]="no",0,IF(OR(AND(Tareas911[[#This Row],[Fecha de vencimiento]]&lt;=TODAY(),Tareas911[[#This Row],[Fecha de vencimiento]]&lt;FechaDeVencimiento),Tareas911[[#This Row],[¿Hecho?]]="Pendiente"),1,"")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Notas" dataDxfId="0"/>
+    <tableColumn id="5" name="Notas" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="Organizador de ideas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1942,7 +1986,7 @@
   <dimension ref="A1:K154"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E13" sqref="D13:E13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="29.25" customHeight="1"/>
@@ -2111,7 +2155,7 @@
       <c r="G11" s="45"/>
     </row>
     <row r="12" spans="1:11" ht="33.75" customHeight="1">
-      <c r="B12" s="21">
+      <c r="B12" s="67">
         <v>2</v>
       </c>
       <c r="C12" s="30" t="s">
@@ -2121,11 +2165,11 @@
         <v>44722</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="32">
         <f ca="1">IF(Tareas[[#This Row],[¿Hecho?]]="SI",2,IF(Tareas[[#This Row],[¿Hecho?]]="no",0,IF(OR(AND(Tareas[[#This Row],[Fecha de vencimiento]]&lt;=TODAY(),Tareas[[#This Row],[Fecha de vencimiento]]&lt;FechaDeVencimiento),Tareas[[#This Row],[¿Hecho?]]="Pendiente"),1,"")))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="46" t="s">
         <v>29</v>
@@ -2142,11 +2186,11 @@
         <v>44722</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="33">
         <f ca="1">IF(Tareas[[#This Row],[¿Hecho?]]="SI",2,IF(Tareas[[#This Row],[¿Hecho?]]="no",0,IF(OR(AND(Tareas[[#This Row],[Fecha de vencimiento]]&lt;=TODAY(),Tareas[[#This Row],[Fecha de vencimiento]]&lt;FechaDeVencimiento),Tareas[[#This Row],[¿Hecho?]]="Pendiente"),1,"")))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="46" t="s">
         <v>30</v>
@@ -2163,11 +2207,11 @@
         <v>44722</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" s="32">
         <f ca="1">IF(Tareas[[#This Row],[¿Hecho?]]="SI",2,IF(Tareas[[#This Row],[¿Hecho?]]="no",0,IF(OR(AND(Tareas[[#This Row],[Fecha de vencimiento]]&lt;=TODAY(),Tareas[[#This Row],[Fecha de vencimiento]]&lt;FechaDeVencimiento),Tareas[[#This Row],[¿Hecho?]]="Pendiente"),1,"")))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="46" t="s">
         <v>28</v>
@@ -2184,11 +2228,11 @@
         <v>44722</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="37">
         <f ca="1">IF(Tareas[[#This Row],[¿Hecho?]]="SI",2,IF(Tareas[[#This Row],[¿Hecho?]]="no",0,IF(OR(AND(Tareas[[#This Row],[Fecha de vencimiento]]&lt;=TODAY(),Tareas[[#This Row],[Fecha de vencimiento]]&lt;FechaDeVencimiento),Tareas[[#This Row],[¿Hecho?]]="Pendiente"),1,"")))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="47" t="s">
         <v>27</v>
@@ -2205,11 +2249,11 @@
         <v>44722</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="37">
         <f ca="1">IF(Tareas[[#This Row],[¿Hecho?]]="SI",2,IF(Tareas[[#This Row],[¿Hecho?]]="no",0,IF(OR(AND(Tareas[[#This Row],[Fecha de vencimiento]]&lt;=TODAY(),Tareas[[#This Row],[Fecha de vencimiento]]&lt;FechaDeVencimiento),Tareas[[#This Row],[¿Hecho?]]="Pendiente"),1,"")))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="47" t="s">
         <v>26</v>
@@ -3340,18 +3384,18 @@
     <mergeCell ref="C6:C8"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:B17">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$F11=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$F11=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$F11=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F17">
-    <cfRule type="expression" dxfId="32" priority="25">
+    <cfRule type="expression" dxfId="41" priority="25">
       <formula>$F11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4747,18 +4791,18 @@
     <mergeCell ref="D6:G8"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:B17">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>$F11=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>$F11=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>$F11=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F17">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>$F11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6191,18 +6235,18 @@
     <mergeCell ref="D6:G8"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:B17">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>$F11=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>$F11=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>$F11=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F17">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>$F11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/procesos.xlsx
+++ b/procesos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="38">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -136,12 +136,18 @@
   <si>
     <t>Conseguir que funcione el formulario de Alumnos</t>
   </si>
+  <si>
+    <t>Cambiar tamaño de letra de Total a Cobrar y Pagar</t>
+  </si>
+  <si>
+    <t>Que el total a Pagar sea igual al Total a Cobrar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="0"/>
@@ -268,6 +274,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -289,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -488,6 +511,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
@@ -508,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -668,6 +711,9 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -710,8 +756,23 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -723,7 +784,14 @@
     <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="47">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -748,21 +816,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF5EBC78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDC913"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2575A"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1543,6 +1597,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5EBC78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDC913"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2575A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <bottom/>
         <horizontal style="thick">
@@ -1570,9 +1645,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Organizador de ideas" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="44"/>
-      <tableStyleElement type="headerRow" dxfId="43"/>
-      <tableStyleElement type="firstColumn" dxfId="42"/>
+      <tableStyleElement type="wholeTable" dxfId="46"/>
+      <tableStyleElement type="headerRow" dxfId="45"/>
+      <tableStyleElement type="firstColumn" dxfId="44"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1621,7 +1696,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1645,8 +1720,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tareas" displayName="Tareas" ref="B10:G17" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
-  <autoFilter ref="B10:G17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tareas" displayName="Tareas" ref="B10:G19" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="B10:G19">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1655,14 +1730,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="6" name=" " dataDxfId="38"/>
-    <tableColumn id="1" name="Tareas" dataDxfId="37"/>
-    <tableColumn id="2" name="Fecha de vencimiento" dataDxfId="36"/>
-    <tableColumn id="3" name="¿Hecho?" dataDxfId="35"/>
-    <tableColumn id="4" name="Estado" dataDxfId="34">
+    <tableColumn id="6" name=" " dataDxfId="37"/>
+    <tableColumn id="1" name="Tareas" dataDxfId="36"/>
+    <tableColumn id="2" name="Fecha de vencimiento" dataDxfId="35"/>
+    <tableColumn id="3" name="¿Hecho?" dataDxfId="34"/>
+    <tableColumn id="4" name="Estado" dataDxfId="33">
       <calculatedColumnFormula>IF(Tareas[[#This Row],[¿Hecho?]]="SI",2,IF(Tareas[[#This Row],[¿Hecho?]]="no",0,IF(OR(AND(Tareas[[#This Row],[Fecha de vencimiento]]&lt;=TODAY(),Tareas[[#This Row],[Fecha de vencimiento]]&lt;FechaDeVencimiento),Tareas[[#This Row],[¿Hecho?]]="Pendiente"),1,"")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Notas" dataDxfId="33"/>
+    <tableColumn id="5" name="Notas" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="Organizador de ideas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1674,17 +1749,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tareas9" displayName="Tareas9" ref="B10:G17" totalsRowShown="0" headerRowDxfId="28" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tareas9" displayName="Tareas9" ref="B10:G17" totalsRowShown="0" headerRowDxfId="27" tableBorderDxfId="26">
   <autoFilter ref="B10:G17"/>
   <tableColumns count="6">
-    <tableColumn id="6" name=" " dataDxfId="26"/>
-    <tableColumn id="1" name="Tareas" dataDxfId="25"/>
-    <tableColumn id="2" name="Fecha de vencimiento" dataDxfId="24"/>
-    <tableColumn id="3" name="¿Hecho?" dataDxfId="23"/>
-    <tableColumn id="4" name="Estado" dataDxfId="22">
+    <tableColumn id="6" name=" " dataDxfId="25"/>
+    <tableColumn id="1" name="Tareas" dataDxfId="24"/>
+    <tableColumn id="2" name="Fecha de vencimiento" dataDxfId="23"/>
+    <tableColumn id="3" name="¿Hecho?" dataDxfId="22"/>
+    <tableColumn id="4" name="Estado" dataDxfId="21">
       <calculatedColumnFormula>IF(Tareas9[[#This Row],[¿Hecho?]]="SI",2,IF(Tareas9[[#This Row],[¿Hecho?]]="no",0,IF(OR(AND(Tareas9[[#This Row],[Fecha de vencimiento]]&lt;=TODAY(),Tareas9[[#This Row],[Fecha de vencimiento]]&lt;FechaDeVencimiento),Tareas9[[#This Row],[¿Hecho?]]="Pendiente"),1,"")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Notas" dataDxfId="21"/>
+    <tableColumn id="5" name="Notas" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="Organizador de ideas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1696,17 +1771,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tareas911" displayName="Tareas911" ref="B10:G17" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tareas911" displayName="Tareas911" ref="B10:G17" totalsRowShown="0" headerRowDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="B10:G17"/>
   <tableColumns count="6">
-    <tableColumn id="6" name=" " dataDxfId="14"/>
-    <tableColumn id="1" name="Tareas" dataDxfId="13"/>
-    <tableColumn id="2" name="Fecha de vencimiento" dataDxfId="12"/>
-    <tableColumn id="3" name="¿Hecho?" dataDxfId="11"/>
-    <tableColumn id="4" name="Estado" dataDxfId="10">
+    <tableColumn id="6" name=" " dataDxfId="13"/>
+    <tableColumn id="1" name="Tareas" dataDxfId="12"/>
+    <tableColumn id="2" name="Fecha de vencimiento" dataDxfId="11"/>
+    <tableColumn id="3" name="¿Hecho?" dataDxfId="10"/>
+    <tableColumn id="4" name="Estado" dataDxfId="9">
       <calculatedColumnFormula>IF(Tareas911[[#This Row],[¿Hecho?]]="SI",2,IF(Tareas911[[#This Row],[¿Hecho?]]="no",0,IF(OR(AND(Tareas911[[#This Row],[Fecha de vencimiento]]&lt;=TODAY(),Tareas911[[#This Row],[Fecha de vencimiento]]&lt;FechaDeVencimiento),Tareas911[[#This Row],[¿Hecho?]]="Pendiente"),1,"")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Notas" dataDxfId="9"/>
+    <tableColumn id="5" name="Notas" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="Organizador de ideas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1972,7 +2047,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1986,7 +2061,7 @@
   <dimension ref="A1:K154"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="29.25" customHeight="1"/>
@@ -2013,7 +2088,7 @@
     </row>
     <row r="2" spans="1:11" ht="36.75" customHeight="1">
       <c r="B2" s="12"/>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="63" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="22" t="s">
@@ -2034,7 +2109,7 @@
     </row>
     <row r="3" spans="1:11" ht="33" customHeight="1">
       <c r="B3" s="12"/>
-      <c r="C3" s="63"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="22" t="s">
         <v>32</v>
       </c>
@@ -2076,31 +2151,31 @@
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1">
       <c r="B6" s="12"/>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1">
       <c r="B7" s="12"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="B8" s="12"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1">
       <c r="B9" s="19"/>
@@ -2155,7 +2230,7 @@
       <c r="G11" s="45"/>
     </row>
     <row r="12" spans="1:11" ht="33.75" customHeight="1">
-      <c r="B12" s="67">
+      <c r="B12" s="53">
         <v>2</v>
       </c>
       <c r="C12" s="30" t="s">
@@ -2282,20 +2357,42 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
+      <c r="B18" s="68">
+        <v>8</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="70">
+        <v>44722</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="72">
+        <f ca="1">IF(Tareas[[#This Row],[¿Hecho?]]="SI",2,IF(Tareas[[#This Row],[¿Hecho?]]="no",0,IF(OR(AND(Tareas[[#This Row],[Fecha de vencimiento]]&lt;=TODAY(),Tareas[[#This Row],[Fecha de vencimiento]]&lt;FechaDeVencimiento),Tareas[[#This Row],[¿Hecho?]]="Pendiente"),1,"")))</f>
+        <v>2</v>
+      </c>
+      <c r="G18" s="73"/>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
+      <c r="B19" s="68">
+        <v>9</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="70">
+        <v>44722</v>
+      </c>
+      <c r="E19" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="72">
+        <f ca="1">IF(Tareas[[#This Row],[¿Hecho?]]="SI",2,IF(Tareas[[#This Row],[¿Hecho?]]="no",0,IF(OR(AND(Tareas[[#This Row],[Fecha de vencimiento]]&lt;=TODAY(),Tareas[[#This Row],[Fecha de vencimiento]]&lt;FechaDeVencimiento),Tareas[[#This Row],[¿Hecho?]]="Pendiente"),1,"")))</f>
+        <v>2</v>
+      </c>
+      <c r="G19" s="73"/>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="29.25" customHeight="1">
       <c r="B20" s="2"/>
@@ -3383,19 +3480,19 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C6:C8"/>
   </mergeCells>
-  <conditionalFormatting sqref="B11:B17">
-    <cfRule type="expression" dxfId="5" priority="1">
+  <conditionalFormatting sqref="B11:B19">
+    <cfRule type="expression" dxfId="43" priority="1">
       <formula>$F11=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="42" priority="2">
       <formula>$F11=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="41" priority="3">
       <formula>$F11=2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F17">
-    <cfRule type="expression" dxfId="41" priority="25">
+  <conditionalFormatting sqref="F11:F19">
+    <cfRule type="expression" dxfId="40" priority="25">
       <formula>$F11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3469,7 +3566,7 @@
     </row>
     <row r="2" spans="1:11" ht="36.75" customHeight="1">
       <c r="B2" s="12"/>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="63" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="22" t="s">
@@ -3487,7 +3584,7 @@
     </row>
     <row r="3" spans="1:11" ht="33" customHeight="1">
       <c r="B3" s="12"/>
-      <c r="C3" s="63"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="22" t="s">
         <v>32</v>
       </c>
@@ -3523,31 +3620,31 @@
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1">
       <c r="B6" s="12"/>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1">
       <c r="B7" s="12"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="B8" s="12"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1">
       <c r="B9" s="19"/>
@@ -4791,18 +4888,18 @@
     <mergeCell ref="D6:G8"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:B17">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>$F11=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>$F11=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>$F11=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F17">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>$F11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4873,7 +4970,7 @@
     </row>
     <row r="2" spans="1:11" ht="36.75" customHeight="1">
       <c r="B2" s="12"/>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="63" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="22" t="s">
@@ -4891,7 +4988,7 @@
     </row>
     <row r="3" spans="1:11" ht="33" customHeight="1">
       <c r="B3" s="12"/>
-      <c r="C3" s="63"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="22" t="s">
         <v>32</v>
       </c>
@@ -4927,31 +5024,31 @@
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1">
       <c r="B6" s="12"/>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1">
       <c r="B7" s="12"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="B8" s="12"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1">
       <c r="B9" s="19"/>
@@ -6235,18 +6332,18 @@
     <mergeCell ref="D6:G8"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:B17">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>$F11=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>$F11=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>$F11=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F17">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>$F11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
